--- a/Conversion Utilities/Conversion Utlities.xlsx
+++ b/Conversion Utilities/Conversion Utlities.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/profmc/Library/CloudStorage/Dropbox/Lambda-Update-Project/Lambda-Development/Conversion Utilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4318CF8-AEC5-5C4A-892C-D69EE23899C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A19C678-77A8-9949-86B5-56C63556B6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="1100" windowWidth="33260" windowHeight="14260" xr2:uid="{7A445647-2974-6942-9320-70750788AE91}"/>
   </bookViews>
@@ -93,9 +93,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,129 +461,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6503EE-3967-F142-A914-D59AF539BB00}">
-  <dimension ref="B3:D17"/>
+  <dimension ref="B3:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:D17"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1"/>
-    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.5703125" style="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" customWidth="1"/>
+    <col min="4" max="4" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
-      <c r="B3" s="1" cm="1">
+    <row r="3" spans="2:5">
+      <c r="B3" cm="1">
         <f t="array" ref="B3">CONVERT_TEMP_C_TO_F(100)</f>
         <v>212</v>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="D3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B3)</f>
         <v>=CONVERT_TEMP_C_TO_F(100)</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="1" cm="1">
+    <row r="4" spans="2:5">
+      <c r="B4" cm="1">
         <f t="array" ref="B4">CONVERT_TEMP_C_TO_F(0)</f>
         <v>32</v>
       </c>
-      <c r="D4" s="1" t="str">
+      <c r="D4" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B4)</f>
         <v>=CONVERT_TEMP_C_TO_F(0)</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="1" cm="1">
+    <row r="6" spans="2:5">
+      <c r="B6" cm="1">
         <f t="array" ref="B6">CONVERT_TEMP_F_TO_C(212)</f>
         <v>100</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B6)</f>
         <v>=CONVERT_TEMP_F_TO_C(212)</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="1" cm="1">
+    <row r="7" spans="2:5">
+      <c r="B7" cm="1">
         <f t="array" ref="B7">CONVERT_TEMP_F_TO_C(32)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B7)</f>
         <v>=CONVERT_TEMP_F_TO_C(32)</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="1" t="str" cm="1">
+    <row r="10" spans="2:5">
+      <c r="B10" t="str" cm="1">
         <f t="array" ref="B10">FORMAT_FEET_AND_INCHES(3.33)</f>
         <v>3' 3.96"</v>
       </c>
-      <c r="D10" s="1" t="str">
+      <c r="D10" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B10)</f>
         <v>=FORMAT_FEET_AND_INCHES(3.33)</v>
       </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="1" t="str" cm="1">
+      <c r="E10" t="str" cm="1">
+        <f t="array" ref="E10">FORMAT_FEET_AND_INCHES(1.047619)</f>
+        <v>1' 0.571"</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="str" cm="1">
         <f t="array" ref="B11">FORMAT_FEET_AND_INCHES(3.33,,,5)</f>
         <v>3' 3.96"</v>
       </c>
-      <c r="D11" s="1" t="str">
+      <c r="D11" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B11)</f>
         <v>=FORMAT_FEET_AND_INCHES(3.33,,,5)</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="1" t="str" cm="1">
+    <row r="12" spans="2:5">
+      <c r="B12" t="str" cm="1">
         <f t="array" ref="B12">FORMAT_FEET_AND_INCHES(3.45,1)</f>
         <v>3' 5-3/8"</v>
       </c>
-      <c r="D12" s="1" t="str">
+      <c r="D12" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B12)</f>
         <v>=FORMAT_FEET_AND_INCHES(3.45,1)</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="1" t="str" cm="1">
+    <row r="13" spans="2:5">
+      <c r="B13" t="str" cm="1">
         <f t="array" ref="B13">FORMAT_FEET_AND_INCHES(3.45,1,16)</f>
         <v>3' 5-3/8"</v>
       </c>
-      <c r="D13" s="1" t="str">
+      <c r="D13" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B13)</f>
         <v>=FORMAT_FEET_AND_INCHES(3.45,1,16)</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="1" t="str" cm="1">
+    <row r="14" spans="2:5">
+      <c r="B14" t="str" cm="1">
         <f t="array" ref="B14">FORMAT_FEET_AND_INCHES(3.45,1,16,5)</f>
         <v>3' 5-3/8"</v>
       </c>
-      <c r="D14" s="1" t="str">
+      <c r="D14" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B14)</f>
         <v>=FORMAT_FEET_AND_INCHES(3.45,1,16,5)</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="1" t="str" cm="1">
+    <row r="16" spans="2:5">
+      <c r="B16" t="str" cm="1">
         <f t="array" ref="B16">FORMAT_INCH_FRACTION(2.369)</f>
         <v>2-11/32"</v>
       </c>
-      <c r="D16" s="1" t="str">
+      <c r="D16" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B16)</f>
         <v>=FORMAT_INCH_FRACTION(2.369)</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="1" t="str" cm="1">
+      <c r="B17" t="str" cm="1">
         <f t="array" ref="B17">FORMAT_INCH_FRACTION(2.369,64)</f>
         <v>2-23/64"</v>
       </c>
-      <c r="D17" s="1" t="str">
+      <c r="D17" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B17)</f>
         <v>=FORMAT_INCH_FRACTION(2.369,64)</v>
       </c>
